--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_204.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_204.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>TownePlace Suites Slidell</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Slidell</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>34</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>65284</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70458</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70458</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_204.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_204.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1006 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r619559036-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40435</t>
+  </si>
+  <si>
+    <t>11638094</t>
+  </si>
+  <si>
+    <t>619559036</t>
+  </si>
+  <si>
+    <t>09/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, quiet, comfortable </t>
+  </si>
+  <si>
+    <t>I stayed almost a week. My house got water damage and so I moved here because it was such a mess. The dogs and I had a king suite. Bed was so comfy I wanted to take it home. Full kitchen saved me money on eating out and vending machines. I was in room 122 and never heard a sound day or night. Lot was full, but no parties or people stomping around. Clean too. Nice towels, nice big bathroom and  plenty of tv channels. Staff was super friendly and they loved the dogs. It was nice to have free breakfast. If we ever flood again, this is where I’ll go. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed almost a week. My house got water damage and so I moved here because it was such a mess. The dogs and I had a king suite. Bed was so comfy I wanted to take it home. Full kitchen saved me money on eating out and vending machines. I was in room 122 and never heard a sound day or night. Lot was full, but no parties or people stomping around. Clean too. Nice towels, nice big bathroom and  plenty of tv channels. Staff was super friendly and they loved the dogs. It was nice to have free breakfast. If we ever flood again, this is where I’ll go. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r608659953-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>608659953</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If only the inside matched the outside </t>
+  </si>
+  <si>
+    <t>When we booked this hotel, the outside looked so nice and the hotel is fairly new so we thought the inside would be just as nice.   When we walked in, we were greeted by a very friendly member of the staff (which was a positive) who told us about the hotel and the hot breakfast that was served, including omelettes and breakfast meats.  The only eggs they had were boiled and there was no meat at all.  The doorways to each room had wet paint and a few of the people working were staring at us and asked if we were leaving soon (we had just arrived and this made us uneasy about leaving.)  The room itself was fairly spacious, but not clean and the bathroom had hair in it upon our arrival so we knew it wasn’t ours.  We def wouldn’t stay here again.  It’s a shame because we have family in Slidell and visit regularly.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>msytm, General Manager at TownePlace Suites Slidell, responded to this reviewResponded August 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2018</t>
+  </si>
+  <si>
+    <t>When we booked this hotel, the outside looked so nice and the hotel is fairly new so we thought the inside would be just as nice.   When we walked in, we were greeted by a very friendly member of the staff (which was a positive) who told us about the hotel and the hot breakfast that was served, including omelettes and breakfast meats.  The only eggs they had were boiled and there was no meat at all.  The doorways to each room had wet paint and a few of the people working were staring at us and asked if we were leaving soon (we had just arrived and this made us uneasy about leaving.)  The room itself was fairly spacious, but not clean and the bathroom had hair in it upon our arrival so we knew it wasn’t ours.  We def wouldn’t stay here again.  It’s a shame because we have family in Slidell and visit regularly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r606412334-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>606412334</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Good basic spot, not as good as other TownePlace Suites I have stayed at</t>
+  </si>
+  <si>
+    <t>The hotel itself was clean and the people, when available, were friendly.  I was booked under my my platinum number, but they didn't have it when I arrived.  I even called ahead and gave it to the guy at the desk so he could get me my free room upgrade.  When I got the bill, he didn't add my number, just moved me in to the larger room with the higher price. My room still had food in the refridgerator from the previous occupant, but was otherwise clean.  The free breakfast was odd.  I am used to the rest of the TownePlace Suites always having an egg product, a meat product and waffles. (3 hots) This one only had 2 of the 3 along with the typical continental flair, except they didn't put out any plain ice water.  I guess when you get used to the great locations, you notice the average ones more.   They did resolve my bill issues with no issue and the rest of the time was quiet, even with a bachelorette party going on the first night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>The hotel itself was clean and the people, when available, were friendly.  I was booked under my my platinum number, but they didn't have it when I arrived.  I even called ahead and gave it to the guy at the desk so he could get me my free room upgrade.  When I got the bill, he didn't add my number, just moved me in to the larger room with the higher price. My room still had food in the refridgerator from the previous occupant, but was otherwise clean.  The free breakfast was odd.  I am used to the rest of the TownePlace Suites always having an egg product, a meat product and waffles. (3 hots) This one only had 2 of the 3 along with the typical continental flair, except they didn't put out any plain ice water.  I guess when you get used to the great locations, you notice the average ones more.   They did resolve my bill issues with no issue and the rest of the time was quiet, even with a bachelorette party going on the first night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r604464717-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>604464717</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Great spot</t>
+  </si>
+  <si>
+    <t>Great spot we stay here when we have to use southern surgical hospital cause it’s next door but good hotel as well, clean well appointed rooms, details are looked after great staff also two thumbs up,breakfast is good for basics, stay here often</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r597190255-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>597190255</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>BED BUGS! DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>I am only writing this review to caution future guests; I had room 414 booked two weekends ago (7/7/17) with three other guests. The room appeared very clean when we checked in, and albeit we could have inspected both beds, we felt comfortable with the cleanliness of the rooms after a quick visual inspection and trusted the reputation and standards of Marriott hotels. We checked in at about 7 PM, freshened up, and went out for the night. We returned to the hotel room late in the night, and as we were getting ready for bed, we noticed a bug crawling on one of us who had already fallen asleep. We killed it, and as soon as we saw the blood on the tissue we had no doubt it was bedbugs. As you can see in the first picture I attached, this bug is alarmingly big. Unfortunately, out of a prior hotel experience, I knew to take pictures, and look for more bugs. Sure enough, as we pulled back the sheets and examined the mattresses, we found more live bugs in both beds. As soon as we did we packed our belongings and contacted the front desk, to which the concierge essentially told me there was nothing she could and wanted do about it. We did not even get to sleep in the room let alone enjoy the room stay for the intended duration.
+This is such a shame, please...I am only writing this review to caution future guests; I had room 414 booked two weekends ago (7/7/17) with three other guests. The room appeared very clean when we checked in, and albeit we could have inspected both beds, we felt comfortable with the cleanliness of the rooms after a quick visual inspection and trusted the reputation and standards of Marriott hotels. We checked in at about 7 PM, freshened up, and went out for the night. We returned to the hotel room late in the night, and as we were getting ready for bed, we noticed a bug crawling on one of us who had already fallen asleep. We killed it, and as soon as we saw the blood on the tissue we had no doubt it was bedbugs. As you can see in the first picture I attached, this bug is alarmingly big. Unfortunately, out of a prior hotel experience, I knew to take pictures, and look for more bugs. Sure enough, as we pulled back the sheets and examined the mattresses, we found more live bugs in both beds. As soon as we did we packed our belongings and contacted the front desk, to which the concierge essentially told me there was nothing she could and wanted do about it. We did not even get to sleep in the room let alone enjoy the room stay for the intended duration.This is such a shame, please do not stay here! Do not risk it, the size of that first bug we found was signifying of the length of the bugs' tenure in these beds, and knowing how fast these bugs spread, it is very possible this isn't the only room affected. We also found a dead bedbug with eggs dried onto the side of the bed-skirt (also pictured) which in my opinion is the worst detail of all of this. This is a ridiculous oversight by whoever is responsible for upholding the dignity of guest-to-hotel relationships. Management should maintain proper standards on this issue above all others; the insidious nature of these bugs will cause damage to hotel AND personal property and more importantly our health, from us to whoever else has stayed and will stay in that room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>I am only writing this review to caution future guests; I had room 414 booked two weekends ago (7/7/17) with three other guests. The room appeared very clean when we checked in, and albeit we could have inspected both beds, we felt comfortable with the cleanliness of the rooms after a quick visual inspection and trusted the reputation and standards of Marriott hotels. We checked in at about 7 PM, freshened up, and went out for the night. We returned to the hotel room late in the night, and as we were getting ready for bed, we noticed a bug crawling on one of us who had already fallen asleep. We killed it, and as soon as we saw the blood on the tissue we had no doubt it was bedbugs. As you can see in the first picture I attached, this bug is alarmingly big. Unfortunately, out of a prior hotel experience, I knew to take pictures, and look for more bugs. Sure enough, as we pulled back the sheets and examined the mattresses, we found more live bugs in both beds. As soon as we did we packed our belongings and contacted the front desk, to which the concierge essentially told me there was nothing she could and wanted do about it. We did not even get to sleep in the room let alone enjoy the room stay for the intended duration.
+This is such a shame, please...I am only writing this review to caution future guests; I had room 414 booked two weekends ago (7/7/17) with three other guests. The room appeared very clean when we checked in, and albeit we could have inspected both beds, we felt comfortable with the cleanliness of the rooms after a quick visual inspection and trusted the reputation and standards of Marriott hotels. We checked in at about 7 PM, freshened up, and went out for the night. We returned to the hotel room late in the night, and as we were getting ready for bed, we noticed a bug crawling on one of us who had already fallen asleep. We killed it, and as soon as we saw the blood on the tissue we had no doubt it was bedbugs. As you can see in the first picture I attached, this bug is alarmingly big. Unfortunately, out of a prior hotel experience, I knew to take pictures, and look for more bugs. Sure enough, as we pulled back the sheets and examined the mattresses, we found more live bugs in both beds. As soon as we did we packed our belongings and contacted the front desk, to which the concierge essentially told me there was nothing she could and wanted do about it. We did not even get to sleep in the room let alone enjoy the room stay for the intended duration.This is such a shame, please do not stay here! Do not risk it, the size of that first bug we found was signifying of the length of the bugs' tenure in these beds, and knowing how fast these bugs spread, it is very possible this isn't the only room affected. We also found a dead bedbug with eggs dried onto the side of the bed-skirt (also pictured) which in my opinion is the worst detail of all of this. This is a ridiculous oversight by whoever is responsible for upholding the dignity of guest-to-hotel relationships. Management should maintain proper standards on this issue above all others; the insidious nature of these bugs will cause damage to hotel AND personal property and more importantly our health, from us to whoever else has stayed and will stay in that room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r591558347-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>591558347</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight Success </t>
+  </si>
+  <si>
+    <t>My family of 4 stayed here on our way home from a 10 day trip to Florida. This is the 4th hotel on the trip and hands down the nicest and the MOST comfortable beds. I mean, the beds are something to write home about! The entire place looks brand new (it may be) and the rooms are huge! Extremely clean. The staff is nice. Starbucks across the street and right off the interstate. What more could you ask for? MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>My family of 4 stayed here on our way home from a 10 day trip to Florida. This is the 4th hotel on the trip and hands down the nicest and the MOST comfortable beds. I mean, the beds are something to write home about! The entire place looks brand new (it may be) and the rooms are huge! Extremely clean. The staff is nice. Starbucks across the street and right off the interstate. What more could you ask for? More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r588418162-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>588418162</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Money was stolen...</t>
+  </si>
+  <si>
+    <t>I want to start by saying the hotel is nice, new, and in a great location. The rooms are new and comfortable. My best friend and I went Slidell for a buddy’s wedding. During checkout, my best friend had accidentally left the wedding card he was going to give to our friend, on the kitchen table in the room. While waiting for a ride outside he noticed it was missing and ran upstairs to retrieve it. The two people cleaning the room denied involvement as the card was found in the trash, ripped open, and the cash removed. The staff had the nerve to say I maybe stole the money from my best friend, who I sever with overseas and have been brothers with for 13 years. I’ve been a platinum Member for 8 years with SPG and now Marriott. I expect loyalty in return. I didn’t receive it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>I want to start by saying the hotel is nice, new, and in a great location. The rooms are new and comfortable. My best friend and I went Slidell for a buddy’s wedding. During checkout, my best friend had accidentally left the wedding card he was going to give to our friend, on the kitchen table in the room. While waiting for a ride outside he noticed it was missing and ran upstairs to retrieve it. The two people cleaning the room denied involvement as the card was found in the trash, ripped open, and the cash removed. The staff had the nerve to say I maybe stole the money from my best friend, who I sever with overseas and have been brothers with for 13 years. I’ve been a platinum Member for 8 years with SPG and now Marriott. I expect loyalty in return. I didn’t receive it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r587254615-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587254615</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location and well maintained.  The rooms are spacious and clean with most anything you would need for an extended stay.  The front desk staff was friendly and they had ample safe parking.  The exterior has several areas to sit outside at night that were a welcomed surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location and well maintained.  The rooms are spacious and clean with most anything you would need for an extended stay.  The front desk staff was friendly and they had ample safe parking.  The exterior has several areas to sit outside at night that were a welcomed surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r583959502-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583959502</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Well maintained hotel</t>
+  </si>
+  <si>
+    <t>Stayed overnight for work. The place is clean, quiet and well maintained. The lobby area is bright, airy and perfect to hang out or work from. Wifi is free and the prices reasonable. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Stayed overnight for work. The place is clean, quiet and well maintained. The lobby area is bright, airy and perfect to hang out or work from. Wifi is free and the prices reasonable. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r574236875-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574236875</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Front Desk Suprise</t>
+  </si>
+  <si>
+    <t>Upon arrival I was told I couldn't get a room for an additional night without higher cost. The next morning Nina was on and she said give me a few minutes to see what I can do.She was able to keep us in the same room and keep the rate the same. Nina gets my vote for desk clerk of the month and we have already booked at this motel again in the next few weeks. Thank you Nina.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Upon arrival I was told I couldn't get a room for an additional night without higher cost. The next morning Nina was on and she said give me a few minutes to see what I can do.She was able to keep us in the same room and keep the rate the same. Nina gets my vote for desk clerk of the month and we have already booked at this motel again in the next few weeks. Thank you Nina.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r555258192-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>555258192</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Sugar Bowl weekend</t>
+  </si>
+  <si>
+    <t>The hotel was clean and nice. It was super quiet. The kitchen was well equipped and the shower was massive. It's still fairly new and doesn't look worn down. They could stand to dust a little more but it wasn't bad. The biggest plus to me is there was no lingering hair from previous guest or the cleaning crew. That's a big pet peeve of mines. We definitely will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was clean and nice. It was super quiet. The kitchen was well equipped and the shower was massive. It's still fairly new and doesn't look worn down. They could stand to dust a little more but it wasn't bad. The biggest plus to me is there was no lingering hair from previous guest or the cleaning crew. That's a big pet peeve of mines. We definitely will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r553629606-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>553629606</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Remains a Best Bet for a Great Stay in Slidell</t>
+  </si>
+  <si>
+    <t>Super-relaxing, great location, with friendly staff.  Near plenty of restaurants/shopping and easy I-10 access, yet still very quiet.  Fireplace inside provide a very relaxing atmosphere.  Also has a nice outdoor fire pit w/ covered seating area, but I preferred the cozy indoors on this chilly, rainy evening.  Wi-Fi was fast, Fitness Center is spacious and modern, and breakfast was very good, for this category of hotel.  An added perk for someone like me who has to be at the local NASA facility early, is that they begin serving breakfast at 5 AM (on weekdays, at least), rather than 6 AM.  I am never let down by this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded January 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2018</t>
+  </si>
+  <si>
+    <t>Super-relaxing, great location, with friendly staff.  Near plenty of restaurants/shopping and easy I-10 access, yet still very quiet.  Fireplace inside provide a very relaxing atmosphere.  Also has a nice outdoor fire pit w/ covered seating area, but I preferred the cozy indoors on this chilly, rainy evening.  Wi-Fi was fast, Fitness Center is spacious and modern, and breakfast was very good, for this category of hotel.  An added perk for someone like me who has to be at the local NASA facility early, is that they begin serving breakfast at 5 AM (on weekdays, at least), rather than 6 AM.  I am never let down by this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r552820825-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>552820825</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Nice cozy hotel, great atmosphere.</t>
+  </si>
+  <si>
+    <t>This hotel is so nice, so close to being at home.  I love it.  Beds are very comfortable.  Rooms are nice, kitchens are great...home like.  The staff, front desk are all wonderful and very helpful.  The place is beautiful and very clean.  Everyone was very friendly and kind.  The only thing I missed was having a bar or restaurant or spa inside the hotel, that would have made my stay more enjoyable.  I also wished for a walking path to the shopping area just across the highway.  I realize this is a new hotel so maybe those things are in the future plans.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is so nice, so close to being at home.  I love it.  Beds are very comfortable.  Rooms are nice, kitchens are great...home like.  The staff, front desk are all wonderful and very helpful.  The place is beautiful and very clean.  Everyone was very friendly and kind.  The only thing I missed was having a bar or restaurant or spa inside the hotel, that would have made my stay more enjoyable.  I also wished for a walking path to the shopping area just across the highway.  I realize this is a new hotel so maybe those things are in the future plans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r525244943-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>525244943</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Really nice hotel with an attractive price and friendly staff.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel evacuating Irma.  The staff was extremely helpful and nice, especially the front desk.  They were very accomodating. Since we had to be away from home, it was nice to have a place with a full kitchen, pull out couch and king bed.  They are pet friendly and since our cat had to come with us, that was a big help.  The hotel looked fairly new.  You could use your Netflix account on their television and also your own DVD player. They offered a small breakfast and had washing machines.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel evacuating Irma.  The staff was extremely helpful and nice, especially the front desk.  They were very accomodating. Since we had to be away from home, it was nice to have a place with a full kitchen, pull out couch and king bed.  They are pet friendly and since our cat had to come with us, that was a big help.  The hotel looked fairly new.  You could use your Netflix account on their television and also your own DVD player. They offered a small breakfast and had washing machines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r516877147-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>516877147</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel Experience</t>
+  </si>
+  <si>
+    <t>I always travel with my family, and generally choose TownPlace because they are family friendly hotels. This particular TownPlace is conveniently located, right  off I - 10, and across the mall and several restaurants. Also is only 30 minutes away from New Orleans and half the price of hotels in the French Quarter area. The hotel is new and clean. As we opened the door to our room we were delighted by the cleanliness and freshness of the unit. In the morning we woke up to a tasty breakfast. Coffee tasted great, and breakfast items were replenished as needed. Breakfast included : muffins, oatmeal and toppings, bread and bagels, cream cheese and jelly, fruit and yogurt, waffles, eggs and turkey sausage, coffee , milk, and juice. Guest service at this hotel is outstanding. We will definitely be back !MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>I always travel with my family, and generally choose TownPlace because they are family friendly hotels. This particular TownPlace is conveniently located, right  off I - 10, and across the mall and several restaurants. Also is only 30 minutes away from New Orleans and half the price of hotels in the French Quarter area. The hotel is new and clean. As we opened the door to our room we were delighted by the cleanliness and freshness of the unit. In the morning we woke up to a tasty breakfast. Coffee tasted great, and breakfast items were replenished as needed. Breakfast included : muffins, oatmeal and toppings, bread and bagels, cream cheese and jelly, fruit and yogurt, waffles, eggs and turkey sausage, coffee , milk, and juice. Guest service at this hotel is outstanding. We will definitely be back !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r516375519-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>516375519</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Great Value for Business Travel</t>
+  </si>
+  <si>
+    <t>Stayed at the TownePlace Suites Slidell for one night during a recent visit to NASA's Stennis Space Center. Very new and modern hotel for business travel and a good value for the money. Will likely stay here again if in town for business.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the TownePlace Suites Slidell for one night during a recent visit to NASA's Stennis Space Center. Very new and modern hotel for business travel and a good value for the money. Will likely stay here again if in town for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r511805924-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>511805924</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean fresh and modern hotel </t>
+  </si>
+  <si>
+    <t>My 5 year old and I were traveling and this was just what we needed.  The room was perfect!! It was late and the front desk staff were super friendly!  The shower was nice and spacious.  We settled in and turned the TV and found it allowed you to pull up your Netflix account.  Of course we pulled up a great movie and fell asleep soundly.  Upon waking up a little later than the complimentary breakfast I went to get coffee, and the sweet team member in charge of breakfast made sure to bring a fresh pot of coffee and helped my daughter get a bowl of cereal.  My daughter hit the pool up before leaving ... awesome We will always remember to stay here!  MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>My 5 year old and I were traveling and this was just what we needed.  The room was perfect!! It was late and the front desk staff were super friendly!  The shower was nice and spacious.  We settled in and turned the TV and found it allowed you to pull up your Netflix account.  Of course we pulled up a great movie and fell asleep soundly.  Upon waking up a little later than the complimentary breakfast I went to get coffee, and the sweet team member in charge of breakfast made sure to bring a fresh pot of coffee and helped my daughter get a bowl of cereal.  My daughter hit the pool up before leaving ... awesome We will always remember to stay here!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r505567250-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>505567250</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Very Good Hotel</t>
+  </si>
+  <si>
+    <t>Arrived in the wee hours. Hotel staff still at the desk - good start! Clean, comfortable and quiet. Convenient to the highway. Breakfast included a variety of hot and cold items. Will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Arrived in the wee hours. Hotel staff still at the desk - good start! Clean, comfortable and quiet. Convenient to the highway. Breakfast included a variety of hot and cold items. Will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r504429373-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>504429373</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Good choice in Slidell !</t>
+  </si>
+  <si>
+    <t>Was here for business. Easy access off the highway with no noise at all. Across from restaurants and stores. Staff was great. Room was large and clean. Unit had full size fridge, stove and microwave. Nice. AC was effective albeit a little noisy. Breakfast had decent selection. Fitness center small but good. Internet was usable only 1 of 2 days. Went away early morning but came back. Temporary problem ? I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was here for business. Easy access off the highway with no noise at all. Across from restaurants and stores. Staff was great. Room was large and clean. Unit had full size fridge, stove and microwave. Nice. AC was effective albeit a little noisy. Breakfast had decent selection. Fitness center small but good. Internet was usable only 1 of 2 days. Went away early morning but came back. Temporary problem ? I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r500910948-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>500910948</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Great choice</t>
+  </si>
+  <si>
+    <t>Had a one night stay here while traveling and was very pleased with this hotel. Looks new, everything is clean, furnishings and decor look great. Also love the amenities of having the full kitchen. The free breakfast was also excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Had a one night stay here while traveling and was very pleased with this hotel. Looks new, everything is clean, furnishings and decor look great. Also love the amenities of having the full kitchen. The free breakfast was also excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r499642304-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>499642304</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Our room was clean and the beds were very comfortable.  We stayed one night on our way to New Orleans and it was a perfect place to stop for the night.  It was easy to find from the highway and since we were arriving late at night, that was important!  The staff was friendly and polite.  We would definitely stay here again.  Breakfast wasn't anything special but there were several options to choose from.  MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Our room was clean and the beds were very comfortable.  We stayed one night on our way to New Orleans and it was a perfect place to stop for the night.  It was easy to find from the highway and since we were arriving late at night, that was important!  The staff was friendly and polite.  We would definitely stay here again.  Breakfast wasn't anything special but there were several options to choose from.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r499539473-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>499539473</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We were able to get a last minute reservation at a reasonable price. It was immaculate! Wonderful, pleasant staff, good selection of snacks and great hot breakfast. We felt very safe and it was a better alternative for us with dogs than staying in NOLA. We felt very safe and very pet friendly!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were able to get a last minute reservation at a reasonable price. It was immaculate! Wonderful, pleasant staff, good selection of snacks and great hot breakfast. We felt very safe and it was a better alternative for us with dogs than staying in NOLA. We felt very safe and very pet friendly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r498080107-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>498080107</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Good choice!</t>
+  </si>
+  <si>
+    <t>Upon arrival, the hotel looked new and had lots of restaurants and shops right across the street for convenience. The staff was super nice and helpful.  We were pleasantly surprised with our room. We booked a two bedroom suite. It was very clean, comfortable and had plenty of room. We were traveling with two dogs and the property was pet friendly and easy to access outside to walk the dogs. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival, the hotel looked new and had lots of restaurants and shops right across the street for convenience. The staff was super nice and helpful.  We were pleasantly surprised with our room. We booked a two bedroom suite. It was very clean, comfortable and had plenty of room. We were traveling with two dogs and the property was pet friendly and easy to access outside to walk the dogs. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r497312078-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>497312078</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Quality and Comfort, May need attention to details</t>
+  </si>
+  <si>
+    <t>We stayed here one night while traveling home to Texas from Tennessee.PositivesRight off the freeway (I-10)Easy check-in.  Friendly staffConvenient to a variety of restaurants (We ate at Copelands)Two room suite had plenty of roomRoom was very quietBreakfast had sufficient variety and quantities ConsWhen we checked in there were two dirty washcloths thrown over the shower rod, one with hair in it.  We removed them with garbage bags and brought it to Front Desk attention the next morning.Despite that issue we would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night while traveling home to Texas from Tennessee.PositivesRight off the freeway (I-10)Easy check-in.  Friendly staffConvenient to a variety of restaurants (We ate at Copelands)Two room suite had plenty of roomRoom was very quietBreakfast had sufficient variety and quantities ConsWhen we checked in there were two dirty washcloths thrown over the shower rod, one with hair in it.  We removed them with garbage bags and brought it to Front Desk attention the next morning.Despite that issue we would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r496982226-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>496982226</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Dance Nationals</t>
+  </si>
+  <si>
+    <t>Stayed for 6 days and had a great experience.  It was close to the venue only 8 minutes away. Restaurants and shopping within walking distance. The staff was soooo friendly and professional.  New and clean hotel that I thoroughly enjoyed. Breakfast far surpassed my expectation. Will stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 6 days and had a great experience.  It was close to the venue only 8 minutes away. Restaurants and shopping within walking distance. The staff was soooo friendly and professional.  New and clean hotel that I thoroughly enjoyed. Breakfast far surpassed my expectation. Will stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r496910984-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>496910984</t>
+  </si>
+  <si>
+    <t>YOU WILL LOVE IT HERE!</t>
+  </si>
+  <si>
+    <t>Most Courteous Staff Ever, I called in to inform FD I was having trouble with getting to the hotel from the airport, Ms. Nifah was very concerned about my safety and checked on me a few times even offering to make travelling arrangements. When I arrived my check in was quick and easy so I was quickly off to get my rest. AMAZING just loved the comfy room just exceptionally clean and It was so quiet. Hotel is in 5star condition and I do hope it will be maintained really a home away from home and definitely made the list of preferred places for my trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Most Courteous Staff Ever, I called in to inform FD I was having trouble with getting to the hotel from the airport, Ms. Nifah was very concerned about my safety and checked on me a few times even offering to make travelling arrangements. When I arrived my check in was quick and easy so I was quickly off to get my rest. AMAZING just loved the comfy room just exceptionally clean and It was so quiet. Hotel is in 5star condition and I do hope it will be maintained really a home away from home and definitely made the list of preferred places for my trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r494883789-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>494883789</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great Visit to a newer hotel</t>
+  </si>
+  <si>
+    <t>Stayed at this location while visiting both New Orleans and taking a day trip to Biloxi. Convenient location close to a lot of restaurants and shopping nearby without a ton of traffic. Easy interstate access to get just about anywhere in an hour. Breakfast in the morning was a hot breakfast and good, and was always attended to by staff which made sure that everything was available. Rooms were nice and came with all amenities that you would expect from this name. Check in and checkout were great and we had no issues while there. Would stay again if ever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this location while visiting both New Orleans and taking a day trip to Biloxi. Convenient location close to a lot of restaurants and shopping nearby without a ton of traffic. Easy interstate access to get just about anywhere in an hour. Breakfast in the morning was a hot breakfast and good, and was always attended to by staff which made sure that everything was available. Rooms were nice and came with all amenities that you would expect from this name. Check in and checkout were great and we had no issues while there. Would stay again if ever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r490344062-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>490344062</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay somewhere else! </t>
+  </si>
+  <si>
+    <t>We booked a two bedroom suite here several days in advance, and when we arrived were told the room had been sold and was no longer available. We drove 7 hours with a 3 and 1 year old and were unapologetically put in a one bedroom room. When I complained to the manager on duty I was told that when booking a room it is just a request, and that you're only guaranteed a room, not the actual type of room you booked. Never in my life have I booked a particular type of room and been given anything but that room. Terrible customer service. Do yourself a favor and book elsewhere. The staff here could care less if you come back in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>msytm, General Manager at TownePlace Suites Slidell, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>We booked a two bedroom suite here several days in advance, and when we arrived were told the room had been sold and was no longer available. We drove 7 hours with a 3 and 1 year old and were unapologetically put in a one bedroom room. When I complained to the manager on duty I was told that when booking a room it is just a request, and that you're only guaranteed a room, not the actual type of room you booked. Never in my life have I booked a particular type of room and been given anything but that room. Terrible customer service. Do yourself a favor and book elsewhere. The staff here could care less if you come back in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r485173791-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>485173791</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>☆THE  EXCEPTIONAL HOME AWAY FROM HOME☆</t>
+  </si>
+  <si>
+    <t>♡Personable ◇UpScale ♧Commerce ♤EcoFriendly 
+Upon Arriving, We Were Greeted By A Warm&amp;Friendly Front Desk Staff(Even The HouseKeeping Staff Ladies Were Very Pleasant&amp;Kind). The Atmosphere Was PeaceFul&amp;Inviting With ThoughtFul Accomodations. The Room Temperature Is Perfectly 
+Digitally Controlled. I Was BeYond Pleased With The High-End Kitchenette That Supplied Clean DishWare With CookWare(There's A BedInBreakFast Tray Available On An Ottoman,  A Tray To Eat On While Watching TV From The Sofa, A Table To Eat A Full #5 Course Meal On&amp;A Well Lighted Desk). The BathRoom Shower Is A-M-A-Z-I-N-G! The Bed Is Really Comfy(Super Soft Pillows),The Sofa Turned Bed Is Quaint. The Pool Area Is Relaxing&amp;Very Nice. The "Fit+Laundry" Areas Are Thumbs Up. I LOVE All The Close In Proximity Amenities Too! OverAll, This Has Been #1 Of My Most Remarkable Hotel Experiences In Slidell,LA Thus Far(I've Stayed @ Several For An Extended Period Of Time Due To Re-locating #2 States Away). In My Humble Opinion, The Hospitality Rendered To My Family &amp; I From Mr. Chase + The Entire "TPSBM" Staff, Whom We Encountered, Is A "BeautyFull" Reflection Of Professionalism In Business Relations. The Detail-Oriented Engineering Design Of This Establishment Illustrates/Demonstrates To Me The Care/Concern Had For Patrons. I've Witnessed The Pride That Emanates From Management As Well As The Ancillary Personnel. We've Decided To Make "TPSBM @ SLIDELL" Our "HOME Away From Home"During Our "NOLA" Vacay Get-A-Ways. We Highly Recommend This Hotel For Any Individual(s)/Family's  Business/Leisure Journey!!!
+With Warmest Personal Regards...♡Personable ◇UpScale ♧Commerce ♤EcoFriendly Upon Arriving, We Were Greeted By A Warm&amp;Friendly Front Desk Staff(Even The HouseKeeping Staff Ladies Were Very Pleasant&amp;Kind). The Atmosphere Was PeaceFul&amp;Inviting With ThoughtFul Accomodations. The Room Temperature Is Perfectly Digitally Controlled. I Was BeYond Pleased With The High-End Kitchenette That Supplied Clean DishWare With CookWare(There's A BedInBreakFast Tray Available On An Ottoman,  A Tray To Eat On While Watching TV From The Sofa, A Table To Eat A Full #5 Course Meal On&amp;A Well Lighted Desk). The BathRoom Shower Is A-M-A-Z-I-N-G! The Bed Is Really Comfy(Super Soft Pillows),The Sofa Turned Bed Is Quaint. The Pool Area Is Relaxing&amp;Very Nice. The "Fit+Laundry" Areas Are Thumbs Up. I LOVE All The Close In Proximity Amenities Too! OverAll, This Has Been #1 Of My Most Remarkable Hotel Experiences In Slidell,LA Thus Far(I've Stayed @ Several For An Extended Period Of Time Due To Re-locating #2 States Away). In My Humble Opinion, The Hospitality Rendered To My Family &amp; I From Mr. Chase + The Entire "TPSBM" Staff, Whom We Encountered, Is A "BeautyFull" Reflection Of Professionalism In Business Relations. The Detail-Oriented Engineering Design Of This Establishment Illustrates/Demonstrates To Me The Care/Concern Had For Patrons. I've Witnessed The Pride That Emanates From Management As Well As The Ancillary Personnel. We've Decided To Make "TPSBM @ SLIDELL" Our "HOME Away From Home"During Our "NOLA" Vacay Get-A-Ways. We Highly Recommend This Hotel For Any Individual(s)/Family's  Business/Leisure Journey!!!With Warmest Personal Regards Dr. TaKena S. Reese-Jones MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>♡Personable ◇UpScale ♧Commerce ♤EcoFriendly 
+Upon Arriving, We Were Greeted By A Warm&amp;Friendly Front Desk Staff(Even The HouseKeeping Staff Ladies Were Very Pleasant&amp;Kind). The Atmosphere Was PeaceFul&amp;Inviting With ThoughtFul Accomodations. The Room Temperature Is Perfectly 
+Digitally Controlled. I Was BeYond Pleased With The High-End Kitchenette That Supplied Clean DishWare With CookWare(There's A BedInBreakFast Tray Available On An Ottoman,  A Tray To Eat On While Watching TV From The Sofa, A Table To Eat A Full #5 Course Meal On&amp;A Well Lighted Desk). The BathRoom Shower Is A-M-A-Z-I-N-G! The Bed Is Really Comfy(Super Soft Pillows),The Sofa Turned Bed Is Quaint. The Pool Area Is Relaxing&amp;Very Nice. The "Fit+Laundry" Areas Are Thumbs Up. I LOVE All The Close In Proximity Amenities Too! OverAll, This Has Been #1 Of My Most Remarkable Hotel Experiences In Slidell,LA Thus Far(I've Stayed @ Several For An Extended Period Of Time Due To Re-locating #2 States Away). In My Humble Opinion, The Hospitality Rendered To My Family &amp; I From Mr. Chase + The Entire "TPSBM" Staff, Whom We Encountered, Is A "BeautyFull" Reflection Of Professionalism In Business Relations. The Detail-Oriented Engineering Design Of This Establishment Illustrates/Demonstrates To Me The Care/Concern Had For Patrons. I've Witnessed The Pride That Emanates From Management As Well As The Ancillary Personnel. We've Decided To Make "TPSBM @ SLIDELL" Our "HOME Away From Home"During Our "NOLA" Vacay Get-A-Ways. We Highly Recommend This Hotel For Any Individual(s)/Family's  Business/Leisure Journey!!!
+With Warmest Personal Regards...♡Personable ◇UpScale ♧Commerce ♤EcoFriendly Upon Arriving, We Were Greeted By A Warm&amp;Friendly Front Desk Staff(Even The HouseKeeping Staff Ladies Were Very Pleasant&amp;Kind). The Atmosphere Was PeaceFul&amp;Inviting With ThoughtFul Accomodations. The Room Temperature Is Perfectly Digitally Controlled. I Was BeYond Pleased With The High-End Kitchenette That Supplied Clean DishWare With CookWare(There's A BedInBreakFast Tray Available On An Ottoman,  A Tray To Eat On While Watching TV From The Sofa, A Table To Eat A Full #5 Course Meal On&amp;A Well Lighted Desk). The BathRoom Shower Is A-M-A-Z-I-N-G! The Bed Is Really Comfy(Super Soft Pillows),The Sofa Turned Bed Is Quaint. The Pool Area Is Relaxing&amp;Very Nice. The "Fit+Laundry" Areas Are Thumbs Up. I LOVE All The Close In Proximity Amenities Too! OverAll, This Has Been #1 Of My Most Remarkable Hotel Experiences In Slidell,LA Thus Far(I've Stayed @ Several For An Extended Period Of Time Due To Re-locating #2 States Away). In My Humble Opinion, The Hospitality Rendered To My Family &amp; I From Mr. Chase + The Entire "TPSBM" Staff, Whom We Encountered, Is A "BeautyFull" Reflection Of Professionalism In Business Relations. The Detail-Oriented Engineering Design Of This Establishment Illustrates/Demonstrates To Me The Care/Concern Had For Patrons. I've Witnessed The Pride That Emanates From Management As Well As The Ancillary Personnel. We've Decided To Make "TPSBM @ SLIDELL" Our "HOME Away From Home"During Our "NOLA" Vacay Get-A-Ways. We Highly Recommend This Hotel For Any Individual(s)/Family's  Business/Leisure Journey!!!With Warmest Personal Regards Dr. TaKena S. Reese-Jones More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r483504247-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>483504247</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>Close to some good restaurants just south of I12 East and I10 East beds were comfortable room nice and clean. Building newer construction, staff friendly. Staff had a hard time  keeping up with replenishing major breakfast items. Stayed here on a Sat for $154.00 tax included. Reserved under trip advisor.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Close to some good restaurants just south of I12 East and I10 East beds were comfortable room nice and clean. Building newer construction, staff friendly. Staff had a hard time  keeping up with replenishing major breakfast items. Stayed here on a Sat for $154.00 tax included. Reserved under trip advisor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r481458832-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>481458832</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly great hotel</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights. Hotel build Dec 2016 and all is new, greatly appointed and welcoming!! WiFi works very fast. Really love the 2 bedroom suites on each end of every floor. Kitchen is complete and highly functional, 3 TVs, thermostat in each bedroom plus main area. Design features that you can really appreciate.Highly recommend and I will stay here from now on when I come to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights. Hotel build Dec 2016 and all is new, greatly appointed and welcoming!! WiFi works very fast. Really love the 2 bedroom suites on each end of every floor. Kitchen is complete and highly functional, 3 TVs, thermostat in each bedroom plus main area. Design features that you can really appreciate.Highly recommend and I will stay here from now on when I come to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r481114004-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>481114004</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Needs some attention</t>
+  </si>
+  <si>
+    <t>All in all an ok place but........I arranged a 1:30 pm checkout.  I had do not disturb sign on the door and at 12:30 pm a maid bangs loudly on the door and tries to force it open.   What is wrong with these people?  Also shower/bath floors are incredibly slippery....beware.  No daily linen service so if that is important to you then this is not for you.  I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>All in all an ok place but........I arranged a 1:30 pm checkout.  I had do not disturb sign on the door and at 12:30 pm a maid bangs loudly on the door and tries to force it open.   What is wrong with these people?  Also shower/bath floors are incredibly slippery....beware.  No daily linen service so if that is important to you then this is not for you.  I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r479465970-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479465970</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Great hotel every thing was good beds are good rooms are good breakfast was good parking was good, service was good, only thing I noticed was that noise from above floors was somewhat distracting thud of foot falls, other than that no problemsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded April 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel every thing was good beds are good rooms are good breakfast was good parking was good, service was good, only thing I noticed was that noise from above floors was somewhat distracting thud of foot falls, other than that no problemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r479326272-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479326272</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, Convenient Stay in Slidell</t>
+  </si>
+  <si>
+    <t>My son was recently married in Slidell, Louisiana. We live in New Orleans and decided to spend the weekend at the hotel to be close to the wedding venue.  The room was terrific.  I rented a two bedroom suite for the groomsmen to dress and there was plenty of room for me to put out food for the guys.The beds were extra comfortable and the rooms large, and impeccably clean.My only complaint was the breakfast ending at 9:30 AM on the weekend!! What is up with that - it makes absolutely no sense.  I can understand during the week, but on the weekend when people want to sleep in, it's borderline ridiculous.  We had family members who couldn't even get a cup of coffee the morning after the wedding.  I was embarrassed and would have brought coffee in had I known that it was unavailable after 9:30.  I have stayed in many, many different hotels and never had a breakfast end at 9:30.  On check in Chase was there to help me with some questions - he is an asset to your company, pleasant, ready to help, and always had a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>My son was recently married in Slidell, Louisiana. We live in New Orleans and decided to spend the weekend at the hotel to be close to the wedding venue.  The room was terrific.  I rented a two bedroom suite for the groomsmen to dress and there was plenty of room for me to put out food for the guys.The beds were extra comfortable and the rooms large, and impeccably clean.My only complaint was the breakfast ending at 9:30 AM on the weekend!! What is up with that - it makes absolutely no sense.  I can understand during the week, but on the weekend when people want to sleep in, it's borderline ridiculous.  We had family members who couldn't even get a cup of coffee the morning after the wedding.  I was embarrassed and would have brought coffee in had I known that it was unavailable after 9:30.  I have stayed in many, many different hotels and never had a breakfast end at 9:30.  On check in Chase was there to help me with some questions - he is an asset to your company, pleasant, ready to help, and always had a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r476937748-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>476937748</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Stay in Slidell</t>
+  </si>
+  <si>
+    <t>Room was very nice for the two days we stayed. Bed very comfortable. Lay out was nice. Roomy. Breakfast consisted of waffles, sausage, oatmeal and dry cereals along with some real fruit. Good coffee. The hostess in the breakfast area was very personable and very friendly. Couldn't do enough for a wonderful breakfast. Would recommend and would stay again. The front desk lady was very friendly and quite helpful with some of the questions that we had when we arrived concerning the hotel as well as the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r472790335-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>472790335</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Still has that New Hotel Smell!</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here recently and was quite pleased overall. The place is brand new and has only been open for 3 months! Still has that new hotel smell when you walk in. Nicely decorated. Beds are comfortable and spacious, with a well appointed kitchen area, including microwave, coffee maker, toaster, good sized fridge, glasses, cups, plates, utensils and even a dishwasher!
+The shower is awesome. Huge glass enclosure with the water control knob set in the side wall, away from the shower head, so you can adjust it before getting in!
+Good selection of tv channels and an excellent guide for choosing shows. The tv's even have options to choose Netflix, Hulu, Crackle and YouTube (though you have to log in on your own account) which was a feature we loved!
+Hotel also has a small fitness room and a decent size outdoor pool. Outdoor options are plentiful as you have the pool area, with a nearby grill and sitting area, plus another section at the front of the hotel with chairs, a tv and a firepit.
+The only negative thing is the breakfast. Ending it at 9 am on weekdays may not be outside the norm, but only extending it to 9:30 on the weekend? It should be 10 am in this travelers opinion. Also, the selection leaves a LOT to be desired. One day they had egg circles (lol) another day they had a few pancakes and...Spent 3 nights here recently and was quite pleased overall. The place is brand new and has only been open for 3 months! Still has that new hotel smell when you walk in. Nicely decorated. Beds are comfortable and spacious, with a well appointed kitchen area, including microwave, coffee maker, toaster, good sized fridge, glasses, cups, plates, utensils and even a dishwasher!The shower is awesome. Huge glass enclosure with the water control knob set in the side wall, away from the shower head, so you can adjust it before getting in!Good selection of tv channels and an excellent guide for choosing shows. The tv's even have options to choose Netflix, Hulu, Crackle and YouTube (though you have to log in on your own account) which was a feature we loved!Hotel also has a small fitness room and a decent size outdoor pool. Outdoor options are plentiful as you have the pool area, with a nearby grill and sitting area, plus another section at the front of the hotel with chairs, a tv and a firepit.The only negative thing is the breakfast. Ending it at 9 am on weekdays may not be outside the norm, but only extending it to 9:30 on the weekend? It should be 10 am in this travelers opinion. Also, the selection leaves a LOT to be desired. One day they had egg circles (lol) another day they had a few pancakes and one sausage patty. Of the three days we were there, only one of those days had bananas as a fruit choice. They have a large comfortable area for eating (even have an indoor gas fireplace) but the breakfast choices, and quantities, really need improvement.Overall we would stay here again, but we would bring our own breakfast food.MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here recently and was quite pleased overall. The place is brand new and has only been open for 3 months! Still has that new hotel smell when you walk in. Nicely decorated. Beds are comfortable and spacious, with a well appointed kitchen area, including microwave, coffee maker, toaster, good sized fridge, glasses, cups, plates, utensils and even a dishwasher!
+The shower is awesome. Huge glass enclosure with the water control knob set in the side wall, away from the shower head, so you can adjust it before getting in!
+Good selection of tv channels and an excellent guide for choosing shows. The tv's even have options to choose Netflix, Hulu, Crackle and YouTube (though you have to log in on your own account) which was a feature we loved!
+Hotel also has a small fitness room and a decent size outdoor pool. Outdoor options are plentiful as you have the pool area, with a nearby grill and sitting area, plus another section at the front of the hotel with chairs, a tv and a firepit.
+The only negative thing is the breakfast. Ending it at 9 am on weekdays may not be outside the norm, but only extending it to 9:30 on the weekend? It should be 10 am in this travelers opinion. Also, the selection leaves a LOT to be desired. One day they had egg circles (lol) another day they had a few pancakes and...Spent 3 nights here recently and was quite pleased overall. The place is brand new and has only been open for 3 months! Still has that new hotel smell when you walk in. Nicely decorated. Beds are comfortable and spacious, with a well appointed kitchen area, including microwave, coffee maker, toaster, good sized fridge, glasses, cups, plates, utensils and even a dishwasher!The shower is awesome. Huge glass enclosure with the water control knob set in the side wall, away from the shower head, so you can adjust it before getting in!Good selection of tv channels and an excellent guide for choosing shows. The tv's even have options to choose Netflix, Hulu, Crackle and YouTube (though you have to log in on your own account) which was a feature we loved!Hotel also has a small fitness room and a decent size outdoor pool. Outdoor options are plentiful as you have the pool area, with a nearby grill and sitting area, plus another section at the front of the hotel with chairs, a tv and a firepit.The only negative thing is the breakfast. Ending it at 9 am on weekdays may not be outside the norm, but only extending it to 9:30 on the weekend? It should be 10 am in this travelers opinion. Also, the selection leaves a LOT to be desired. One day they had egg circles (lol) another day they had a few pancakes and one sausage patty. Of the three days we were there, only one of those days had bananas as a fruit choice. They have a large comfortable area for eating (even have an indoor gas fireplace) but the breakfast choices, and quantities, really need improvement.Overall we would stay here again, but we would bring our own breakfast food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r471891624-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471891624</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Really Nice Hotel</t>
+  </si>
+  <si>
+    <t>As a Marriott Platinum member (over 75 nights stayed in Marriott brand locations per year) for over 5 years, I am confident I can rate the TownePlace Suites as a good, solid hotel.  If it's luxury you crave, go to New Orleans.  If you want a clean, professionally run, quiet place to crash after a long day of whatever (working, driving, etc.), it's perfect.  Dining options across the street, Southside Cafe about a mile away.  Right off the highway.  Free breakfast, nice staff, new hotel, safe, decent price - what else is there while on biz travel?  I'll go back no doubt!MoreShow less</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>As a Marriott Platinum member (over 75 nights stayed in Marriott brand locations per year) for over 5 years, I am confident I can rate the TownePlace Suites as a good, solid hotel.  If it's luxury you crave, go to New Orleans.  If you want a clean, professionally run, quiet place to crash after a long day of whatever (working, driving, etc.), it's perfect.  Dining options across the street, Southside Cafe about a mile away.  Right off the highway.  Free breakfast, nice staff, new hotel, safe, decent price - what else is there while on biz travel?  I'll go back no doubt!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r468080902-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468080902</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Unexpected extended Trip to New Orleans</t>
+  </si>
+  <si>
+    <t>We just checked out of the TownePlace Suites in Slidell, LA.... This hotel was an amazing treat. Our flights were canceled on Tuesday because of the NE Blizzard and we couldn't stay at our current Hotel in downtown New Orleans. So we booked 3 nights here and I'm glad we did. The rooms were spacious, very clean had a lot of amenities even a pool the kids loved. We were able to wash clothes since we only packed for 3 nights and not 6. The staff especially Chase at the front desk were so Friendly, accommodating and full of knowledge. I would recommend this Hotel which is only 30 east of New Orleans to EVERYONE.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>AngelHayes-GM, General Manager at TownePlace Suites Slidell, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>We just checked out of the TownePlace Suites in Slidell, LA.... This hotel was an amazing treat. Our flights were canceled on Tuesday because of the NE Blizzard and we couldn't stay at our current Hotel in downtown New Orleans. So we booked 3 nights here and I'm glad we did. The rooms were spacious, very clean had a lot of amenities even a pool the kids loved. We were able to wash clothes since we only packed for 3 nights and not 6. The staff especially Chase at the front desk were so Friendly, accommodating and full of knowledge. I would recommend this Hotel which is only 30 east of New Orleans to EVERYONE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r456991126-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>456991126</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>GREAT STAFF GREAT SERVICE</t>
+  </si>
+  <si>
+    <t>Stayed just 1 night but Ms.Nifah you were awesome to have changed our room to make our family comfortable to get some rest. We enjoyed our stay and will continue to use your service. We were impressed with her. Thanks Nifah</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r450028922-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>450028922</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Great home away from home</t>
+  </si>
+  <si>
+    <t>For us the location was perfect. Our room was very comfortable and exceptionally clean.  We had all our needs met during our stay.  The staff were all very friendly and accommodating.  We will definitely be back and this is where we will stay.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r448645668-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>448645668</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place, Great Location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a new property, neat and clean everything you should expect from a new property.  The staff was friendly and very helpful. Excellent staff!. The property is in a Great Location.  Will definitely stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r448613545-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>448613545</t>
+  </si>
+  <si>
+    <t>New hotel with loving staff</t>
+  </si>
+  <si>
+    <t>Our family stayed in this hotel for one week between Christmas and New Year. We chose this location because it is in between New Orleans and Mississippi coast that both we would like to visit.The hotel is new so all facility and hardware are in great conditions. Overall a nice all suite hotel for family with all convenient features such as kitchen, free breakfast, heated pool, and living room, etc.What really strikes me is the service and attitude of the staff. Everyone whom we interacted with are eager to help.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40435-d11638094-r447878756-TownePlace_Suites_Slidell-Slidell_Louisiana.html</t>
+  </si>
+  <si>
+    <t>447878756</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>traveling</t>
+  </si>
+  <si>
+    <t>We were traveling to visit family in Texas and stayed over at this hotel.  Everything was really nice, the people, the rooms, and the area.  I would recommend it staying here if you are ever in the area!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1558,2673 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>192</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O27" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>214</v>
+      </c>
+      <c r="X27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>214</v>
+      </c>
+      <c r="X28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>160</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>311</v>
+      </c>
+      <c r="K38" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" t="s">
+        <v>160</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>314</v>
+      </c>
+      <c r="X38" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>330</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>338</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>339</v>
+      </c>
+      <c r="J42" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65284</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +4247,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +4279,31 @@
         <v>65284</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="E2" t="n">
         <v>70458</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
